--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -5,30 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\GitRepo\CSC-591-IoT-Assignment_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\591-IoT\hw\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FA96AA-4B70-4C66-AB16-2F912A76D4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0FCBC6-512C-4A4D-9FED-F1F28CF4174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-245" yWindow="869" windowWidth="19563" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-937" yWindow="3070" windowWidth="19562" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -509,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,9 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,7 +890,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.95" x14ac:dyDescent="0.25"/>
@@ -1045,41 +1032,40 @@
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="37">
-        <v>4.6199999999999998E-2</v>
+      <c r="B6" s="4">
+        <v>0.19994100000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>2.4480000000000001E-3</v>
+        <v>0.17055699999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>1.5169999999999999E-3</v>
+        <v>3.6075000000000003E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>2.9350000000000001E-3</v>
+        <v>7.4489999999999999E-3</v>
       </c>
       <c r="F6" s="2">
-        <v>1.1310000000000001E-3</v>
+        <v>2.3319999999999999E-3</v>
       </c>
       <c r="G6" s="2">
-        <v>7.392E-2</v>
+        <v>0.24279999999999999</v>
       </c>
       <c r="H6" s="2">
-        <v>2.9819999999999998E-3</v>
+        <v>3.6740000000000002E-3</v>
       </c>
       <c r="I6" s="5">
-        <v>3.575539</v>
-      </c>
-      <c r="J6" s="37">
-        <f>139/100</f>
+        <v>12.17418</v>
+      </c>
+      <c r="J6" s="14">
         <v>1.39</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="2">
         <v>1.0580000000000001</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="2">
         <v>1.054</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="5">
         <v>1.0649999999999999</v>
       </c>
     </row>

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\CSC-591-IoT\CSC-591-IoT-Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39058960-DA03-4F87-8232-B663AE70CB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10306155-E92F-4E7F-8FD1-F898B48DE9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16335" yWindow="2145" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24885" yWindow="3960" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,6 +548,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -574,60 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,7 +912,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M7" sqref="B5:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -923,44 +923,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="14" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1020,98 +1020,98 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="20">
         <v>0.64</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="21">
         <v>0.23</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="21">
         <v>27.33</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="21">
         <v>23</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="21">
         <v>134.09</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="21">
         <v>239.21</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="21">
         <v>981.32</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="22">
         <v>178.61</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="23">
         <v>1.95</v>
       </c>
-      <c r="K5" s="30">
-        <v>1</v>
-      </c>
-      <c r="L5" s="30">
-        <v>1</v>
-      </c>
-      <c r="M5" s="31">
-        <v>1</v>
+      <c r="K5" s="21">
+        <v>1.009277</v>
+      </c>
+      <c r="L5" s="21">
+        <v>1.0000899999999999</v>
+      </c>
+      <c r="M5" s="22">
+        <v>1.0000089999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="28">
         <v>0.19994100000000001</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="29">
         <v>0.17055699999999999</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="29">
         <v>3.6075000000000003E-2</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="29">
         <v>7.4489999999999999E-3</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="29">
         <v>2.3319999999999999E-3</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="29">
         <v>0.24279999999999999</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="29">
         <v>3.6740000000000002E-3</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="30">
         <v>12.17418</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="31">
         <v>1.39</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="29">
         <v>1.0580000000000001</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="29">
         <v>1.054</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="30">
         <v>1.0649999999999999</v>
       </c>
     </row>
@@ -1119,18 +1119,42 @@
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
+      <c r="B7" s="24">
+        <v>5.6440000000000001</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2.476</v>
+      </c>
+      <c r="D7" s="25">
+        <v>413.447</v>
+      </c>
+      <c r="E7" s="25">
+        <v>104.789</v>
+      </c>
+      <c r="F7" s="25">
+        <v>7883.2709999999997</v>
+      </c>
+      <c r="G7" s="25">
+        <v>2169.797</v>
+      </c>
+      <c r="H7" s="25">
+        <v>14020.215</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1996.28</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1.48</v>
+      </c>
+      <c r="K7" s="25">
+        <v>1.0046875</v>
+      </c>
+      <c r="L7" s="25">
+        <v>1.0000457760000001</v>
+      </c>
+      <c r="M7" s="26">
+        <v>1.000004651</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\CSC-591-IoT\CSC-591-IoT-Assignment_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamyen/Desktop/CSC 591/IoT/CSC-591-IoT-Assignment_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10306155-E92F-4E7F-8FD1-F898B48DE9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF19BF9-DF11-A54B-B94D-5B4FCA5B92B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24885" yWindow="3960" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,13 +78,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,7 +92,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -90,13 +100,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -104,9 +114,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -378,30 +394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -509,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -536,7 +528,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,46 +540,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,13 +585,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,21 +600,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -909,58 +893,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="B5:M7"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="10" customWidth="1"/>
-    <col min="14" max="17" width="9.125" customWidth="1"/>
+    <col min="14" max="17" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="32" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
@@ -978,7 +962,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1016,145 +1000,181 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
+      <c r="B4" s="14">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.129</v>
+      </c>
+      <c r="D4" s="15">
+        <v>593.42499999999995</v>
+      </c>
+      <c r="E4" s="15">
+        <v>131.26400000000001</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1986.539</v>
+      </c>
+      <c r="G4" s="15">
+        <v>398.54250000000002</v>
+      </c>
+      <c r="H4" s="15">
+        <v>27419.766220000001</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2871</v>
+      </c>
+      <c r="J4" s="20">
+        <v>1.43</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1.03</v>
+      </c>
+      <c r="L4" s="18">
+        <v>1.016</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1.04</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>0.64</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>0.23</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>27.33</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>23</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>134.09</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <v>239.21</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="18">
         <v>981.32</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="19">
         <v>178.61</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <v>1.95</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="18">
         <v>1.009277</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="18">
         <v>1.0000899999999999</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="19">
         <v>1.0000089999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <v>0.19994100000000001</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="26">
         <v>0.17055699999999999</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="26">
         <v>3.6075000000000003E-2</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>7.4489999999999999E-3</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="26">
         <v>2.3319999999999999E-3</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="26">
         <v>0.24279999999999999</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="26">
         <v>3.6740000000000002E-3</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="27">
         <v>12.17418</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="28">
         <v>1.39</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="26">
         <v>1.0580000000000001</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="26">
         <v>1.054</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="27">
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>5.6440000000000001</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>2.476</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>413.447</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>104.789</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>7883.2709999999997</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>2169.797</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>14020.215</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>1996.28</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="24">
         <v>1.48</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <v>1.0046875</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <v>1.0000457760000001</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="23">
         <v>1.000004651</v>
       </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamyen/Desktop/CSC 591/IoT/CSC-591-IoT-Assignment_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\CSC-591-IoT\CSC-591-IoT-Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF19BF9-DF11-A54B-B94D-5B4FCA5B92B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583AA3A3-3D38-4958-9F0F-6CACD6F9C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,14 +76,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="182" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="183" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -92,7 +94,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -100,13 +102,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -114,7 +116,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -202,6 +204,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -211,7 +228,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -220,73 +237,30 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -352,19 +326,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -473,17 +434,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -501,16 +451,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,13 +472,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,62 +481,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,22 +512,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -896,55 +833,59 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="10" customWidth="1"/>
-    <col min="14" max="17" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="17" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="29" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
@@ -962,7 +903,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
@@ -987,194 +928,194 @@
       <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.129</v>
-      </c>
-      <c r="D4" s="15">
-        <v>593.42499999999995</v>
-      </c>
-      <c r="E4" s="15">
-        <v>131.26400000000001</v>
-      </c>
-      <c r="F4" s="15">
-        <v>1986.539</v>
-      </c>
-      <c r="G4" s="15">
-        <v>398.54250000000002</v>
-      </c>
-      <c r="H4" s="15">
-        <v>27419.766220000001</v>
-      </c>
-      <c r="I4" s="16">
-        <v>2871</v>
-      </c>
-      <c r="J4" s="20">
+      <c r="B4" s="23">
+        <v>7.9375000000000001E-2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1.6125E-2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>74.178124999999994</v>
+      </c>
+      <c r="E4" s="23">
+        <v>16.408000000000001</v>
+      </c>
+      <c r="F4" s="23">
+        <v>248.317375</v>
+      </c>
+      <c r="G4" s="23">
+        <v>49.817812500000002</v>
+      </c>
+      <c r="H4" s="23">
+        <v>3427.4707775000002</v>
+      </c>
+      <c r="I4" s="23">
+        <v>358.875</v>
+      </c>
+      <c r="J4" s="24">
         <v>1.43</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="25">
         <v>1.03</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="25">
         <v>1.016</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="26">
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17">
-        <v>0.64</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.23</v>
-      </c>
-      <c r="D5" s="18">
-        <v>27.33</v>
-      </c>
-      <c r="E5" s="18">
-        <v>23</v>
-      </c>
-      <c r="F5" s="18">
-        <v>134.09</v>
-      </c>
-      <c r="G5" s="18">
-        <v>239.21</v>
-      </c>
-      <c r="H5" s="18">
-        <v>981.32</v>
-      </c>
-      <c r="I5" s="19">
-        <v>178.61</v>
-      </c>
-      <c r="J5" s="20">
+      <c r="B5" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="C5" s="22">
+        <v>2.8750000000000001E-2</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3.4162499999999998</v>
+      </c>
+      <c r="E5" s="22">
+        <v>2.875</v>
+      </c>
+      <c r="F5" s="22">
+        <v>16.76125</v>
+      </c>
+      <c r="G5" s="22">
+        <v>29.901250000000001</v>
+      </c>
+      <c r="H5" s="22">
+        <v>122.66500000000001</v>
+      </c>
+      <c r="I5" s="22">
+        <v>22.326250000000002</v>
+      </c>
+      <c r="J5" s="30">
         <v>1.95</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="31">
         <v>1.009277</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="31">
         <v>1.0000899999999999</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="32">
         <v>1.0000089999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25">
-        <v>0.19994100000000001</v>
-      </c>
-      <c r="C6" s="26">
-        <v>0.17055699999999999</v>
-      </c>
-      <c r="D6" s="26">
-        <v>3.6075000000000003E-2</v>
-      </c>
-      <c r="E6" s="26">
-        <v>7.4489999999999999E-3</v>
-      </c>
-      <c r="F6" s="26">
-        <v>2.3319999999999999E-3</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0.24279999999999999</v>
-      </c>
-      <c r="H6" s="26">
-        <v>3.6740000000000002E-3</v>
-      </c>
-      <c r="I6" s="27">
-        <v>12.17418</v>
-      </c>
-      <c r="J6" s="28">
+      <c r="B6" s="22">
+        <v>2.4992625000000001E-2</v>
+      </c>
+      <c r="C6" s="22">
+        <v>2.1319624999999998E-2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>4.5093750000000004E-3</v>
+      </c>
+      <c r="E6" s="22">
+        <v>9.3112499999999999E-4</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2.9149999999999998E-4</v>
+      </c>
+      <c r="G6" s="22">
+        <v>3.0349999999999999E-2</v>
+      </c>
+      <c r="H6" s="22">
+        <v>4.5925000000000002E-4</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1.5217725</v>
+      </c>
+      <c r="J6" s="27">
         <v>1.39</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="28">
         <v>1.0580000000000001</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="28">
         <v>1.054</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="29">
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="11">
         <v>5.6440000000000001</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="11">
         <v>2.476</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="11">
         <v>413.447</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="11">
         <v>104.789</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="11">
         <v>7883.2709999999997</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="11">
         <v>2169.797</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="11">
         <v>14020.215</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="11">
         <v>1996.28</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="33">
         <v>1.48</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="34">
         <v>1.0046875</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="34">
         <v>1.0000457760000001</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="35">
         <v>1.000004651</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\CSC-591-IoT\CSC-591-IoT-Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583AA3A3-3D38-4958-9F0F-6CACD6F9C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB75FE-0D49-4F44-9593-7CF1BD290962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14430" yWindow="150" windowWidth="14385" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="182" formatCode="0.000000_);[Red]\(0.000000\)"/>
-    <numFmt numFmtId="183" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -485,6 +485,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -511,44 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,7 +833,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -848,44 +848,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="13" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
@@ -945,40 +945,40 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="14">
         <v>7.9375000000000001E-2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="14">
         <v>1.6125E-2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="14">
         <v>74.178124999999994</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="14">
         <v>16.408000000000001</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="14">
         <v>248.317375</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="14">
         <v>49.817812500000002</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="14">
         <v>3427.4707775000002</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="14">
         <v>358.875</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="15">
         <v>1.43</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="16">
         <v>1.03</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="16">
         <v>1.016</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="17">
         <v>1.04</v>
       </c>
     </row>
@@ -986,40 +986,40 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="13">
         <v>0.08</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="13">
         <v>2.8750000000000001E-2</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="13">
         <v>3.4162499999999998</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="13">
         <v>2.875</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="13">
         <v>16.76125</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="13">
         <v>29.901250000000001</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="13">
         <v>122.66500000000001</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="13">
         <v>22.326250000000002</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="21">
         <v>1.95</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="22">
         <v>1.009277</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="22">
         <v>1.0000899999999999</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="23">
         <v>1.0000089999999999</v>
       </c>
     </row>
@@ -1027,40 +1027,40 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22">
-        <v>2.4992625000000001E-2</v>
-      </c>
-      <c r="C6" s="22">
-        <v>2.1319624999999998E-2</v>
-      </c>
-      <c r="D6" s="22">
-        <v>4.5093750000000004E-3</v>
-      </c>
-      <c r="E6" s="22">
-        <v>9.3112499999999999E-4</v>
-      </c>
-      <c r="F6" s="22">
-        <v>2.9149999999999998E-4</v>
-      </c>
-      <c r="G6" s="22">
-        <v>3.0349999999999999E-2</v>
-      </c>
-      <c r="H6" s="22">
-        <v>4.5925000000000002E-4</v>
-      </c>
-      <c r="I6" s="22">
-        <v>1.5217725</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="B6" s="13">
+        <v>65.747879999999995</v>
+      </c>
+      <c r="C6" s="13">
+        <v>31.860859999999999</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1290.5440000000001</v>
+      </c>
+      <c r="E6" s="13">
+        <v>518.11170000000004</v>
+      </c>
+      <c r="F6" s="13">
+        <v>3557.4789999999998</v>
+      </c>
+      <c r="G6" s="13">
+        <v>304.14370000000002</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2390.9459999999999</v>
+      </c>
+      <c r="I6" s="13">
+        <v>554.21199999999999</v>
+      </c>
+      <c r="J6" s="18">
         <v>1.39</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="19">
         <v>1.0580000000000001</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="19">
         <v>1.054</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="20">
         <v>1.0649999999999999</v>
       </c>
     </row>
@@ -1092,16 +1092,16 @@
       <c r="I7" s="11">
         <v>1996.28</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="24">
         <v>1.48</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="25">
         <v>1.0046875</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="25">
         <v>1.0000457760000001</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="26">
         <v>1.000004651</v>
       </c>
     </row>

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\CSC-591-IoT\CSC-591-IoT-Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB75FE-0D49-4F44-9593-7CF1BD290962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE4BEB6-B2F8-48B6-8A4A-E5C242A9E7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14430" yWindow="150" windowWidth="14385" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,7 +833,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -946,28 +946,28 @@
         <v>0</v>
       </c>
       <c r="B4" s="14">
-        <v>7.9375000000000001E-2</v>
+        <v>6.35</v>
       </c>
       <c r="C4" s="14">
-        <v>1.6125E-2</v>
+        <v>1.29</v>
       </c>
       <c r="D4" s="14">
-        <v>74.178124999999994</v>
+        <v>593.41999999999996</v>
       </c>
       <c r="E4" s="14">
-        <v>16.408000000000001</v>
+        <v>131.26</v>
       </c>
       <c r="F4" s="14">
-        <v>248.317375</v>
+        <v>19865.39</v>
       </c>
       <c r="G4" s="14">
-        <v>49.817812500000002</v>
+        <v>3985.42</v>
       </c>
       <c r="H4" s="14">
-        <v>3427.4707775000002</v>
+        <v>27419.759999999998</v>
       </c>
       <c r="I4" s="14">
-        <v>358.875</v>
+        <v>2871.02</v>
       </c>
       <c r="J4" s="15">
         <v>1.43</v>
@@ -987,28 +987,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="13">
-        <v>0.08</v>
+        <v>5.1161500000000002</v>
       </c>
       <c r="C5" s="13">
-        <v>2.8750000000000001E-2</v>
+        <v>1.8566750000000001</v>
       </c>
       <c r="D5" s="13">
-        <v>3.4162499999999998</v>
+        <v>218.64914899999999</v>
       </c>
       <c r="E5" s="13">
-        <v>2.875</v>
+        <v>184.009108</v>
       </c>
       <c r="F5" s="13">
-        <v>16.76125</v>
+        <v>1072.6850019999999</v>
       </c>
       <c r="G5" s="13">
-        <v>29.901250000000001</v>
+        <v>1913.7187650000001</v>
       </c>
       <c r="H5" s="13">
-        <v>122.66500000000001</v>
+        <v>1428.905548</v>
       </c>
       <c r="I5" s="13">
-        <v>22.326250000000002</v>
+        <v>7850.584237</v>
       </c>
       <c r="J5" s="21">
         <v>1.95</v>
